--- a/biology/Zoologie/Dendroidea/Dendroidea.xlsx
+++ b/biology/Zoologie/Dendroidea/Dendroidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dendroidea (dendroïdes en français), forment un ordre éteint d'animaux en forme de dendrites ou de branches, avec un grand nombre d'axes par branche. C'est l'un des deux ordres de la classe des Graptolithina (graptolites ).
 Les dendroïdes sont des graptolites plus primitifs (du Cambrien supérieur)[réf. nécessaire] et sont souvent « enracinés » sur le fond marin. 
